--- a/simple.xlsx
+++ b/simple.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="510" windowWidth="27495" windowHeight="12720"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>light</t>
   </si>
@@ -33,29 +33,61 @@
     <t>word</t>
   </si>
   <si>
-    <t>excel</t>
-  </si>
-  <si>
     <t>window</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>dfbfdbs</t>
+  </si>
+  <si>
+    <t>khnbsdjkhbfj</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>walrus</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>photon</t>
+  </si>
+  <si>
+    <t>pencil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,16 +103,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -370,127 +407,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="n">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>